--- a/dcomtestcasegeneration/Document/Response_Handling.xlsx
+++ b/dcomtestcasegeneration/Document/Response_Handling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC0FBB72-7AE1-4FB3-8679-52E1987CF01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2BFDE7-0243-47E8-B5C5-854BC19634E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="3345" windowWidth="25125" windowHeight="13185" xr2:uid="{5B2364A0-EC56-433A-BAC9-C6E396E9CF8A}"/>
+    <workbookView xWindow="1545" yWindow="2010" windowWidth="17115" windowHeight="7680" xr2:uid="{5B2364A0-EC56-433A-BAC9-C6E396E9CF8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="56">
   <si>
     <t>2e</t>
   </si>
@@ -134,6 +134,75 @@
   <si>
     <t>Addressing
 Mode</t>
+  </si>
+  <si>
+    <t>suppressbit enable</t>
+  </si>
+  <si>
+    <t>isSuppressbitSupport</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Ne</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>IsFaultEnabled?</t>
+  </si>
+  <si>
+    <t>IsFaultDisabled?</t>
+  </si>
+  <si>
+    <t>14ffffff?</t>
+  </si>
+  <si>
+    <t>8502?</t>
+  </si>
+  <si>
+    <t>Read DTC response</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>nodtc</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>noconfirmedA</t>
+  </si>
+  <si>
+    <t>noconfirmedP</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>{1}0</t>
+  </si>
+  <si>
+    <t>{1}[f|b|9}.*</t>
+  </si>
+  <si>
+    <t>{1}[e|a|8}.*</t>
+  </si>
+  <si>
+    <t>{1}[1|3|5|7}.*</t>
+  </si>
+  <si>
+    <t>{1}[2|4|6}.*</t>
   </si>
 </sst>
 </file>
@@ -176,7 +245,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +291,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,18 +410,24 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,17 +437,46 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -377,6 +487,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3699D0A5-44BC-4AD7-99A4-1D077905B462}" name="Table2" displayName="Table2" ref="N9:S16" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="N9:S16" xr:uid="{3699D0A5-44BC-4AD7-99A4-1D077905B462}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A20DCD1E-AA8D-4C4B-B4A5-BB5AC8B853F9}" name="IsFaultEnabled?" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{AF6F84F8-950E-4F6A-BF77-2755B465667C}" name="IsFaultDisabled?" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{C5E509B5-7ECF-4D67-A65D-A631E0742A37}" name="14ffffff?" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{D551B06C-2CC9-4EAF-AB51-4AABE5E2F550}" name="8502?" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{0CC04E8A-4DDC-4ED6-8D78-1200CE94359C}" name="Read DTC response" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{DB71BA1E-FE3F-47CF-B66F-222EE9B2A674}" name="Value" dataDxfId="0" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -678,46 +803,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C6B681-1704-417D-8676-082C84C2BED3}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="J5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="3"/>
-    <col min="15" max="15" width="16" style="3" customWidth="1"/>
-    <col min="16" max="16" width="34" style="3" customWidth="1"/>
-    <col min="17" max="17" width="46.85546875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="45" style="3" customWidth="1"/>
+    <col min="3" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="44.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="40" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="41.28515625" style="3" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="2">
         <v>10</v>
       </c>
@@ -748,8 +874,17 @@
       <c r="L2" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -786,9 +921,18 @@
       <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -812,13 +956,24 @@
         <v>11</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
@@ -840,12 +995,23 @@
         <v>14</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="L5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -870,12 +1036,23 @@
         <v>12</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="1">
+        <v>12</v>
+      </c>
       <c r="L6" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -900,12 +1077,14 @@
         <v>13</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="L7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -921,39 +1100,119 @@
       <c r="G8" s="1">
         <v>31</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="H8" s="1">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1">
+        <v>31</v>
+      </c>
       <c r="J8" s="1">
         <v>31</v>
       </c>
-      <c r="K8" s="1">
-        <v>31</v>
-      </c>
+      <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N10" s="22">
+        <v>0</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N11" s="22">
+        <v>1</v>
+      </c>
+      <c r="O11" s="22">
+        <v>0</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>0</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="N12" s="22">
+        <v>1</v>
+      </c>
+      <c r="O12" s="22">
+        <v>0</v>
+      </c>
+      <c r="P12" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>1</v>
+      </c>
+      <c r="R12" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="2">
         <v>10</v>
       </c>
@@ -984,8 +1243,26 @@
       <c r="L13" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N13" s="22">
+        <v>1</v>
+      </c>
+      <c r="O13" s="22">
+        <v>0</v>
+      </c>
+      <c r="P13" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>1</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -1022,9 +1299,27 @@
       <c r="L14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="N14" s="22">
+        <v>1</v>
+      </c>
+      <c r="O14" s="22">
+        <v>1</v>
+      </c>
+      <c r="P14" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>0</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1048,13 +1343,33 @@
         <v>11</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L15" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
+      <c r="N15" s="22">
+        <v>1</v>
+      </c>
+      <c r="O15" s="22">
+        <v>1</v>
+      </c>
+      <c r="P15" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>1</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
       <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1076,9 +1391,29 @@
         <v>14</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="L16" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="N16" s="22">
+        <v>1</v>
+      </c>
+      <c r="O16" s="22">
+        <v>1</v>
+      </c>
+      <c r="P16" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -1106,7 +1441,9 @@
         <v>11</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,7 +1473,9 @@
         <v>11</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1157,33 +1496,35 @@
       <c r="G19" s="1">
         <v>31</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="H19" s="1">
+        <v>35</v>
+      </c>
+      <c r="I19" s="1">
+        <v>31</v>
+      </c>
       <c r="J19" s="1">
         <v>31</v>
       </c>
-      <c r="K19" s="1">
-        <v>31</v>
-      </c>
+      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O21" s="16" t="s">
+      <c r="O21" s="18" t="s">
         <v>32</v>
       </c>
       <c r="P21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q21" s="15" t="s">
+      <c r="Q21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="R21" s="15"/>
+      <c r="R21" s="17"/>
       <c r="S21" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="17"/>
+      <c r="O22" s="19"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="10" t="s">
         <v>24</v>
@@ -1229,18 +1570,21 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="O21:O22"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:L12"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="O21:O22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>